--- a/file.xlsx
+++ b/file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pg\vuz_word_excel_convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A305DC-7C3A-4807-809B-98A1768BF16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA764066-9EC6-4C07-9DB4-1CA4FD704B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3885" yWindow="3885" windowWidth="21600" windowHeight="11385" xr2:uid="{E466F7E9-A8B3-4ADB-BDD2-B0156B135F9A}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="54">
   <si>
     <t>Id</t>
   </si>
@@ -147,9 +147,6 @@
     <t>1230.9874865132/hhegbce;uytbcgtrv           hdhhhfhvhvfggfgggggggggggos;iklhn, ck.z,j,nmb vhjdssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssssss_x000D_
 qqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqq11111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))))(((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((((222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222222qqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeee     111111111111111111111111111111_x000D_
  wcccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccckkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkkeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeee999</t>
-  </si>
-  <si>
-    <t>qqq</t>
   </si>
   <si>
     <t>https://istc-mai.ru/wp-content/uploads/wp_dndcf7_uploads/wpcf7-files/dIxxU9X8xvnQ-1060/Inf-p-2-2024.docx</t>
@@ -754,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FB2F37-0BFE-4C84-895D-130E3813DB91}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A21"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,7 +856,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -871,13 +868,13 @@
         <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K2">
         <v>777</v>
@@ -898,16 +895,16 @@
         <v>111</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="T2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U2">
         <v>1</v>
@@ -966,13 +963,13 @@
         <v>31</v>
       </c>
       <c r="R3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="U3">
         <v>1</v>
@@ -989,55 +986,55 @@
         <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4">
         <v>123</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4">
+        <v>123</v>
+      </c>
+      <c r="O4">
+        <v>123</v>
+      </c>
+      <c r="P4">
+        <v>123</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4">
-        <v>123</v>
-      </c>
-      <c r="O4">
-        <v>123</v>
-      </c>
-      <c r="P4">
-        <v>123</v>
-      </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="T4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U4">
         <v>1</v>
@@ -1054,55 +1051,55 @@
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K5">
         <v>123</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5">
+        <v>123</v>
+      </c>
+      <c r="O5">
+        <v>123</v>
+      </c>
+      <c r="P5">
+        <v>123</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5">
-        <v>123</v>
-      </c>
-      <c r="O5">
-        <v>123</v>
-      </c>
-      <c r="P5">
-        <v>123</v>
-      </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="T5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U5">
         <v>1</v>
@@ -1119,55 +1116,55 @@
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6">
         <v>123</v>
       </c>
       <c r="L6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6">
+        <v>123</v>
+      </c>
+      <c r="O6">
+        <v>123</v>
+      </c>
+      <c r="P6">
+        <v>123</v>
+      </c>
+      <c r="Q6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6">
-        <v>123</v>
-      </c>
-      <c r="O6">
-        <v>123</v>
-      </c>
-      <c r="P6">
-        <v>123</v>
-      </c>
-      <c r="Q6" s="2" t="s">
+      <c r="R6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="T6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U6">
         <v>1</v>
@@ -1184,55 +1181,55 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K7">
         <v>123</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7">
+        <v>123</v>
+      </c>
+      <c r="O7">
+        <v>123</v>
+      </c>
+      <c r="P7">
+        <v>123</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7">
-        <v>123</v>
-      </c>
-      <c r="O7">
-        <v>123</v>
-      </c>
-      <c r="P7">
-        <v>123</v>
-      </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="T7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U7">
         <v>1</v>
@@ -1249,55 +1246,55 @@
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8">
         <v>123</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8">
+        <v>123</v>
+      </c>
+      <c r="O8">
+        <v>123</v>
+      </c>
+      <c r="P8">
+        <v>123</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8">
-        <v>123</v>
-      </c>
-      <c r="O8">
-        <v>123</v>
-      </c>
-      <c r="P8">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="2" t="s">
+      <c r="R8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="T8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U8">
         <v>1</v>
@@ -1314,55 +1311,55 @@
         <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9">
         <v>123</v>
       </c>
       <c r="L9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9">
+        <v>123</v>
+      </c>
+      <c r="O9">
+        <v>123</v>
+      </c>
+      <c r="P9">
+        <v>123</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9">
-        <v>123</v>
-      </c>
-      <c r="O9">
-        <v>123</v>
-      </c>
-      <c r="P9">
-        <v>123</v>
-      </c>
-      <c r="Q9" s="2" t="s">
+      <c r="R9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="T9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U9">
         <v>1</v>
@@ -1379,55 +1376,55 @@
         <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10">
         <v>123</v>
       </c>
       <c r="L10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10">
+        <v>123</v>
+      </c>
+      <c r="O10">
+        <v>123</v>
+      </c>
+      <c r="P10">
+        <v>123</v>
+      </c>
+      <c r="Q10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10">
-        <v>123</v>
-      </c>
-      <c r="O10">
-        <v>123</v>
-      </c>
-      <c r="P10">
-        <v>123</v>
-      </c>
-      <c r="Q10" s="2" t="s">
+      <c r="R10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="T10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U10">
         <v>1</v>
@@ -1444,55 +1441,55 @@
         <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K11">
         <v>123</v>
       </c>
       <c r="L11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11">
+        <v>123</v>
+      </c>
+      <c r="O11">
+        <v>123</v>
+      </c>
+      <c r="P11">
+        <v>123</v>
+      </c>
+      <c r="Q11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N11">
-        <v>123</v>
-      </c>
-      <c r="O11">
-        <v>123</v>
-      </c>
-      <c r="P11">
-        <v>123</v>
-      </c>
-      <c r="Q11" s="2" t="s">
+      <c r="R11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="T11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U11">
         <v>1</v>
@@ -1509,55 +1506,55 @@
         <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K12">
         <v>123</v>
       </c>
       <c r="L12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12">
+        <v>123</v>
+      </c>
+      <c r="O12">
+        <v>123</v>
+      </c>
+      <c r="P12">
+        <v>123</v>
+      </c>
+      <c r="Q12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N12">
-        <v>123</v>
-      </c>
-      <c r="O12">
-        <v>123</v>
-      </c>
-      <c r="P12">
-        <v>123</v>
-      </c>
-      <c r="Q12" s="2" t="s">
+      <c r="R12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="T12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U12">
         <v>1</v>
@@ -1574,55 +1571,55 @@
         <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K13">
         <v>123</v>
       </c>
       <c r="L13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13">
+        <v>123</v>
+      </c>
+      <c r="O13">
+        <v>123</v>
+      </c>
+      <c r="P13">
+        <v>123</v>
+      </c>
+      <c r="Q13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13">
-        <v>123</v>
-      </c>
-      <c r="O13">
-        <v>123</v>
-      </c>
-      <c r="P13">
-        <v>123</v>
-      </c>
-      <c r="Q13" s="2" t="s">
+      <c r="R13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="T13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U13">
         <v>1</v>
@@ -1639,55 +1636,55 @@
         <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14">
         <v>123</v>
       </c>
       <c r="L14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14">
+        <v>123</v>
+      </c>
+      <c r="O14">
+        <v>123</v>
+      </c>
+      <c r="P14">
+        <v>123</v>
+      </c>
+      <c r="Q14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14">
-        <v>123</v>
-      </c>
-      <c r="O14">
-        <v>123</v>
-      </c>
-      <c r="P14">
-        <v>123</v>
-      </c>
-      <c r="Q14" s="2" t="s">
+      <c r="R14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="T14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U14">
         <v>1</v>
@@ -1704,55 +1701,55 @@
         <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K15">
         <v>123</v>
       </c>
       <c r="L15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15">
+        <v>123</v>
+      </c>
+      <c r="O15">
+        <v>123</v>
+      </c>
+      <c r="P15">
+        <v>123</v>
+      </c>
+      <c r="Q15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N15">
-        <v>123</v>
-      </c>
-      <c r="O15">
-        <v>123</v>
-      </c>
-      <c r="P15">
-        <v>123</v>
-      </c>
-      <c r="Q15" s="2" t="s">
+      <c r="R15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="T15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U15">
         <v>1</v>
@@ -1769,55 +1766,55 @@
         <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K16">
         <v>123</v>
       </c>
       <c r="L16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16">
+        <v>123</v>
+      </c>
+      <c r="O16">
+        <v>123</v>
+      </c>
+      <c r="P16">
+        <v>123</v>
+      </c>
+      <c r="Q16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N16">
-        <v>123</v>
-      </c>
-      <c r="O16">
-        <v>123</v>
-      </c>
-      <c r="P16">
-        <v>123</v>
-      </c>
-      <c r="Q16" s="2" t="s">
+      <c r="R16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="T16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U16">
         <v>1</v>
@@ -1834,19 +1831,19 @@
         <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>27</v>
@@ -1858,31 +1855,31 @@
         <v>123</v>
       </c>
       <c r="L17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17">
+        <v>123</v>
+      </c>
+      <c r="O17">
+        <v>123</v>
+      </c>
+      <c r="P17">
+        <v>123</v>
+      </c>
+      <c r="Q17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N17">
-        <v>123</v>
-      </c>
-      <c r="O17">
-        <v>123</v>
-      </c>
-      <c r="P17">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="2" t="s">
+      <c r="R17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="T17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U17">
         <v>1</v>
@@ -1899,55 +1896,55 @@
         <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18">
         <v>123</v>
       </c>
       <c r="L18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18">
+        <v>123</v>
+      </c>
+      <c r="O18">
+        <v>123</v>
+      </c>
+      <c r="P18">
+        <v>123</v>
+      </c>
+      <c r="Q18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N18">
-        <v>123</v>
-      </c>
-      <c r="O18">
-        <v>123</v>
-      </c>
-      <c r="P18">
-        <v>123</v>
-      </c>
-      <c r="Q18" s="2" t="s">
+      <c r="R18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="T18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U18">
         <v>1</v>
@@ -1964,55 +1961,55 @@
         <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K19">
         <v>123</v>
       </c>
       <c r="L19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19">
+        <v>123</v>
+      </c>
+      <c r="O19">
+        <v>123</v>
+      </c>
+      <c r="P19">
+        <v>123</v>
+      </c>
+      <c r="Q19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N19">
-        <v>123</v>
-      </c>
-      <c r="O19">
-        <v>123</v>
-      </c>
-      <c r="P19">
-        <v>123</v>
-      </c>
-      <c r="Q19" s="2" t="s">
+      <c r="R19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="T19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U19">
         <v>1</v>
@@ -2029,55 +2026,55 @@
         <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K20">
         <v>123</v>
       </c>
       <c r="L20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20">
+        <v>123</v>
+      </c>
+      <c r="O20">
+        <v>123</v>
+      </c>
+      <c r="P20">
+        <v>123</v>
+      </c>
+      <c r="Q20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N20">
-        <v>123</v>
-      </c>
-      <c r="O20">
-        <v>123</v>
-      </c>
-      <c r="P20">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="2" t="s">
+      <c r="R20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="T20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -2094,55 +2091,55 @@
         <v>21</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K21">
         <v>123</v>
       </c>
       <c r="L21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21">
+        <v>123</v>
+      </c>
+      <c r="O21">
+        <v>123</v>
+      </c>
+      <c r="P21">
+        <v>123</v>
+      </c>
+      <c r="Q21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N21">
-        <v>123</v>
-      </c>
-      <c r="O21">
-        <v>123</v>
-      </c>
-      <c r="P21">
-        <v>123</v>
-      </c>
-      <c r="Q21" s="2" t="s">
+      <c r="R21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="T21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U21">
         <v>1</v>
